--- a/Time Estimate.xlsx
+++ b/Time Estimate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="9795"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="170">
   <si>
     <t xml:space="preserve">Tasks: </t>
   </si>
@@ -459,10 +459,73 @@
     <t>Figure out solution to issue</t>
   </si>
   <si>
-    <t xml:space="preserve">Run Test </t>
-  </si>
-  <si>
-    <t>Testing change List</t>
+    <t>Run Tests</t>
+  </si>
+  <si>
+    <t>Figure out bringup</t>
+  </si>
+  <si>
+    <t>Next test stage of product testing</t>
+  </si>
+  <si>
+    <t>Figure out remaining problems</t>
+  </si>
+  <si>
+    <t>apply soluton</t>
+  </si>
+  <si>
+    <t>Setup remaining tests</t>
+  </si>
+  <si>
+    <t>Run tests</t>
+  </si>
+  <si>
+    <t>Data acquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round 3 </t>
+  </si>
+  <si>
+    <t>Anayze data</t>
+  </si>
+  <si>
+    <t>Generate meaningful graphs</t>
+  </si>
+  <si>
+    <t>Figure out what to do: Malcolm</t>
+  </si>
+  <si>
+    <t>:TOTAL</t>
+  </si>
+  <si>
+    <t>:SUM TOTAL</t>
+  </si>
+  <si>
+    <t>Malcolm Note</t>
+  </si>
+  <si>
+    <t>Each Feature spend time to bring up each feature that is located in the feature block diagram</t>
+  </si>
+  <si>
+    <t>I'm going to spend certain amount of time to bring up each feature.</t>
+  </si>
+  <si>
+    <t>Meta Time task List:</t>
+  </si>
+  <si>
+    <t>Making a time task list for time task list</t>
+  </si>
+  <si>
+    <t>Making a time list for other parts of projects</t>
+  </si>
+  <si>
+    <t>Actual Time</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Bring up v2.0</t>
   </si>
 </sst>
 </file>
@@ -486,7 +549,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -494,8 +556,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,7 +572,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -517,19 +580,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,863 +902,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O158"/>
+  <dimension ref="A3:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="D81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.625" customWidth="1"/>
+    <col min="3" max="3" width="51.375" customWidth="1"/>
+    <col min="4" max="4" width="55.375" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
     <col min="13" max="13" width="28" customWidth="1"/>
-    <col min="14" max="14" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I7" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>SUM(E8:E13)</f>
+        <v>148</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14">
+        <f>F14/60</f>
+        <v>2.4666666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N16" t="s">
         <v>9</v>
       </c>
-      <c r="O5">
+      <c r="O16">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
         <v>10</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="N7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>60</v>
-      </c>
-      <c r="N8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10">
-        <f>SUM(O8:O9)*2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11">
-        <f>SUM(O5:O10)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <f>SUM(E6:E12)</f>
-        <v>130</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13">
-        <f>F13/60</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="N16" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
       </c>
       <c r="O17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="N19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21">
+        <f>SUM(O19:O20)*2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22">
+        <f>SUM(O16:O21)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>SUM(E17:E23)</f>
+        <v>130</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24">
+        <f>F24/60</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="E18">
+      <c r="E29">
         <v>10</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18">
-        <f>SUM(O12:O17)</f>
+      <c r="N29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <f>SUM(O23:O28)</f>
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="E19">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="M19" t="s">
+      <c r="F30" s="1"/>
+      <c r="M30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N31" t="s">
         <v>16</v>
       </c>
-      <c r="O20">
+      <c r="O31">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="E21">
-        <v>25</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="E32">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>52</v>
       </c>
-      <c r="O22">
+      <c r="O33">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="2" t="s">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E23">
+      <c r="E34">
         <f>10*16</f>
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>53</v>
       </c>
-      <c r="E24">
+      <c r="E35">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>54</v>
       </c>
-      <c r="E25">
+      <c r="E36">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>55</v>
       </c>
-      <c r="E26">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="E27">
+      <c r="E38">
         <v>55</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>53</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="M28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29">
-        <f>SUM(O4:O28)</f>
-        <v>590</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>50</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40">
-        <f>SUM(E16:E39)</f>
+      <c r="M39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40">
+        <f>SUM(O15:O39)</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>SUM(E27:E50)</f>
         <v>417</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H40">
-        <f>F40/60</f>
+      <c r="H51">
+        <f>F51/60</f>
         <v>6.95</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>112</v>
       </c>
-      <c r="E43">
+      <c r="E54">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>113</v>
       </c>
-      <c r="E44">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+      <c r="E55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>114</v>
       </c>
-      <c r="E45">
+      <c r="E56">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F46">
-        <f>SUM(E43:E45)</f>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f>SUM(E54:E56)</f>
         <v>160</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H46">
-        <f>F46/60</f>
+      <c r="H57">
+        <f>F57/60</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>71</v>
       </c>
-      <c r="E50">
+      <c r="E61">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
         <v>72</v>
       </c>
-      <c r="E51">
+      <c r="E62">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>73</v>
       </c>
-      <c r="E52">
+      <c r="E63">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>74</v>
       </c>
-      <c r="E53">
+      <c r="E64">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>75</v>
       </c>
-      <c r="E54">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
+      <c r="E65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>76</v>
       </c>
-      <c r="E55">
+      <c r="E66">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>74</v>
       </c>
-      <c r="E56">
+      <c r="E67">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>83</v>
-      </c>
-      <c r="E66">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68">
-        <v>25</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E69">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E70">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E71">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>69</v>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>89</v>
+      <c r="B74" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>90</v>
+      <c r="C75" t="s">
+        <v>77</v>
       </c>
       <c r="E75">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>91</v>
+      <c r="C76" t="s">
+        <v>82</v>
       </c>
       <c r="E76">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>94</v>
+      <c r="C77" t="s">
+        <v>83</v>
       </c>
       <c r="E77">
-        <f>SUM(E75:E76)</f>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88">
+        <f>SUM(E86:E87)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
         <v>93</v>
       </c>
-      <c r="E79">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
+      <c r="E90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
         <v>95</v>
       </c>
-      <c r="E80">
+      <c r="E91">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
         <v>91</v>
       </c>
-      <c r="E81">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
+      <c r="E92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>94</v>
       </c>
-      <c r="E82">
+      <c r="E93">
         <f>35</f>
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E85">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E86">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E87">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>85</v>
-      </c>
-      <c r="E91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>104</v>
-      </c>
-      <c r="E92">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93">
-        <v>30</v>
-      </c>
-    </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E94">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E96">
         <v>10</v>
@@ -1693,399 +1753,664 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E97">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
       <c r="F99">
-        <f>SUM(E50:E98)</f>
-        <v>1187</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H99">
+        <f>SUM(E75:E99)</f>
+        <v>540</v>
+      </c>
+      <c r="G99">
         <f>F99/60</f>
-        <v>19.783333333333335</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>23</v>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100">
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>32</v>
+      <c r="C101" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101">
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+      <c r="E106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>74</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f>SUM(E61:E109)</f>
+        <v>1187</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110">
+        <f>F110/60</f>
+        <v>19.783333333333335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
+    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
         <v>118</v>
       </c>
-      <c r="E103">
+      <c r="E114">
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
         <v>119</v>
       </c>
-      <c r="E104">
+      <c r="E115">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
+    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>120</v>
       </c>
-      <c r="E105">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
+      <c r="E116">
+        <v>25</v>
+      </c>
+      <c r="K116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
         <v>121</v>
       </c>
-      <c r="E106">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
+      <c r="E117">
+        <v>25</v>
+      </c>
+      <c r="K117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
         <v>122</v>
       </c>
-      <c r="E107">
+      <c r="E118">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
+      <c r="K118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
         <v>123</v>
       </c>
-      <c r="E108">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
+      <c r="E119">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
         <v>124</v>
       </c>
-      <c r="E109">
+      <c r="E120">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
+    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
         <v>125</v>
       </c>
-      <c r="E110">
+      <c r="E121">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
+    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
         <v>126</v>
       </c>
-      <c r="E111">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+      <c r="E122">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
+    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
         <v>128</v>
       </c>
-      <c r="E113">
+      <c r="E124">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
+    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
         <v>127</v>
       </c>
-      <c r="E114">
+      <c r="E125">
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
+    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
         <v>129</v>
       </c>
-      <c r="E115">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
+      <c r="E126">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
         <v>130</v>
       </c>
-      <c r="E116">
+      <c r="E127">
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
+    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
         <v>131</v>
       </c>
-      <c r="E117">
+      <c r="E128">
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
         <v>132</v>
       </c>
-      <c r="E118">
+      <c r="E129">
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
         <v>133</v>
       </c>
-      <c r="E119">
+      <c r="E130">
         <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>139</v>
-      </c>
-      <c r="D121" t="s">
-        <v>128</v>
-      </c>
-      <c r="E121">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>139</v>
-      </c>
-      <c r="D122" t="s">
-        <v>127</v>
-      </c>
-      <c r="E122">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>129</v>
-      </c>
-      <c r="E123">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>130</v>
-      </c>
-      <c r="E124">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>132</v>
-      </c>
-      <c r="E125">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
-        <v>134</v>
-      </c>
-      <c r="D128" t="s">
-        <v>138</v>
-      </c>
-      <c r="E128">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>135</v>
-      </c>
-      <c r="D129" t="s">
-        <v>138</v>
-      </c>
-      <c r="E129">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>136</v>
-      </c>
-      <c r="D130" t="s">
-        <v>138</v>
-      </c>
-      <c r="E130">
-        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>137</v>
-      </c>
-      <c r="D131" t="s">
-        <v>138</v>
-      </c>
-      <c r="E131">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F132">
-        <f>SUM(E103:E131)</f>
-        <v>1020</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H132">
-        <f>F132/60</f>
-        <v>17</v>
+      <c r="C132" t="s">
+        <v>139</v>
+      </c>
+      <c r="D132" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132">
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>24</v>
+      <c r="C133" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" t="s">
+        <v>127</v>
+      </c>
+      <c r="E133">
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>37</v>
-      </c>
-      <c r="C134" t="s">
-        <v>115</v>
+      <c r="D134" t="s">
+        <v>129</v>
+      </c>
+      <c r="E134">
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E135">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E136">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
-        <v>143</v>
-      </c>
-      <c r="E138">
-        <v>25</v>
+      <c r="B138" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>134</v>
+      </c>
       <c r="D139" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E139">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
+        <v>135</v>
+      </c>
+      <c r="D140" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>136</v>
+      </c>
+      <c r="D141" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>137</v>
+      </c>
+      <c r="D142" t="s">
+        <v>138</v>
+      </c>
+      <c r="E142">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <f>SUM(E114:E142)</f>
+        <v>1020</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143">
+        <f>F143/60</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>140</v>
+      </c>
+      <c r="E146">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>141</v>
+      </c>
+      <c r="E147">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>142</v>
+      </c>
+      <c r="E148">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>143</v>
+      </c>
+      <c r="E149">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>142</v>
+      </c>
+      <c r="E150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>95</v>
+      </c>
+      <c r="E152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>105</v>
+      </c>
+      <c r="E154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
-        <v>147</v>
-      </c>
-      <c r="E141">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+      <c r="E155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>152</v>
+      </c>
+      <c r="E158">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>153</v>
+      </c>
+      <c r="E159">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>154</v>
+      </c>
+      <c r="E160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>153</v>
+      </c>
+      <c r="E161">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>154</v>
+      </c>
+      <c r="E162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
         <v>144</v>
       </c>
-      <c r="E154">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
+      <c r="E165">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
         <v>146</v>
       </c>
-      <c r="E155">
+      <c r="E166">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>150</v>
+      </c>
+      <c r="E170">
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>151</v>
+      </c>
+      <c r="E171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>157</v>
+      </c>
+      <c r="E174">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>158</v>
+      </c>
+      <c r="E175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="F176">
+        <f>SUM(E146:E175)</f>
+        <v>1240</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H176">
+        <f>F176/60</f>
+        <v>20.666666666666668</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <f>SUM(H15:H176)</f>
+        <v>69.233333333333334</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
